--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Problem_solving\SV\DSA_Leetcode_GFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Problem_solving\SV\SV_CompetativeProgramming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADDDA82-5AAA-4766-A281-8EBB470A9D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEBE4AC-5E9A-427B-8FBB-F315E39C15C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2087,7 +2087,9 @@
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="11" t="s">
@@ -2096,7 +2098,9 @@
       <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="11" t="s">
@@ -2114,7 +2118,9 @@
       <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="11" t="s">
@@ -2123,7 +2129,9 @@
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="11" t="s">
@@ -2132,7 +2140,9 @@
       <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="11" t="s">
@@ -2141,7 +2151,9 @@
       <c r="B25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="11" t="s">
@@ -2150,7 +2162,9 @@
       <c r="B26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="27" spans="1:3" s="3" customFormat="1" ht="21">
       <c r="A27" s="8" t="s">
@@ -2159,7 +2173,9 @@
       <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="11" t="s">
@@ -2168,7 +2184,9 @@
       <c r="B28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="11" t="s">
